--- a/data/RLIe_all.xlsx
+++ b/data/RLIe_all.xlsx
@@ -461,7 +461,7 @@
         <v>0.34</v>
       </c>
       <c r="G3">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>0.5894736842105264</v>
       </c>
       <c r="G14">
-        <v>0.7097744360902256</v>
+        <v>0.7067669172932332</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -878,10 +878,10 @@
         <v>0.6330827067669174</v>
       </c>
       <c r="F15">
-        <v>0.5684210526315789</v>
+        <v>0.5729323308270677</v>
       </c>
       <c r="G15">
-        <v>0.6947368421052631</v>
+        <v>0.6977443609022556</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>0.5699248120300752</v>
       </c>
       <c r="G16">
-        <v>0.6947368421052631</v>
+        <v>0.6962406015037594</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -948,10 +948,10 @@
         <v>0.6330827067669174</v>
       </c>
       <c r="F17">
-        <v>0.5699248120300752</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="G17">
-        <v>0.6962406015037594</v>
+        <v>0.6947368421052631</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>0.8055555555555556</v>
       </c>
       <c r="G19">
-        <v>0.8855555555555555</v>
+        <v>0.8844444444444445</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>0.8388888888888889</v>
       </c>
       <c r="F20">
-        <v>0.7988611111111111</v>
+        <v>0.7999722222222223</v>
       </c>
       <c r="G20">
-        <v>0.8777777777777778</v>
+        <v>0.8766666666666667</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>0.8344444444444444</v>
       </c>
       <c r="F21">
-        <v>0.7944444444444445</v>
+        <v>0.7933333333333333</v>
       </c>
       <c r="G21">
         <v>0.8733333333333333</v>
@@ -1123,7 +1123,7 @@
         <v>0.9369565217391305</v>
       </c>
       <c r="F22">
-        <v>0.8934782608695653</v>
+        <v>0.8934239130434783</v>
       </c>
       <c r="G22">
         <v>0.9760869565217392</v>
@@ -1193,10 +1193,10 @@
         <v>0.9195652173913044</v>
       </c>
       <c r="F24">
-        <v>0.8695652173913043</v>
+        <v>0.8673913043478261</v>
       </c>
       <c r="G24">
-        <v>0.9652173913043478</v>
+        <v>0.9630434782608696</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1228,10 +1228,10 @@
         <v>0.9195652173913044</v>
       </c>
       <c r="F25">
-        <v>0.8717391304347826</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="G25">
-        <v>0.9652173913043478</v>
+        <v>0.9630434782608696</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>0.34</v>
       </c>
       <c r="G29">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1823,10 +1823,10 @@
         <v>0.6454545454545455</v>
       </c>
       <c r="F42">
-        <v>0.5863636363636364</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G42">
-        <v>0.7045454545454546</v>
+        <v>0.7060606060606061</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>0.5681818181818181</v>
       </c>
       <c r="G43">
-        <v>0.6924242424242424</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>0.5681818181818181</v>
       </c>
       <c r="G44">
-        <v>0.693939393939394</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1928,10 +1928,10 @@
         <v>0.6303030303030304</v>
       </c>
       <c r="F45">
-        <v>0.5681818181818181</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="G45">
-        <v>0.6909469696969691</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>0.9421052631578948</v>
       </c>
       <c r="F46">
-        <v>0.8789473684210526</v>
+        <v>0.8842105263157894</v>
       </c>
       <c r="G46">
         <v>0.9894736842105263</v>
@@ -1998,7 +1998,7 @@
         <v>0.9421052631578948</v>
       </c>
       <c r="F47">
-        <v>0.8842105263157894</v>
+        <v>0.8789473684210526</v>
       </c>
       <c r="G47">
         <v>0.9894736842105263</v>
@@ -2033,7 +2033,7 @@
         <v>0.9263157894736842</v>
       </c>
       <c r="F48">
-        <v>0.8578947368421053</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="G48">
         <v>0.9842105263157894</v>
@@ -2068,7 +2068,7 @@
         <v>0.9263157894736842</v>
       </c>
       <c r="F49">
-        <v>0.8578947368421053</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="G49">
         <v>0.9842105263157894</v>
@@ -2138,7 +2138,7 @@
         <v>0.8149253731343283</v>
       </c>
       <c r="F51">
-        <v>0.7461940298507462</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="G51">
         <v>0.8805970149253731</v>
@@ -2176,7 +2176,7 @@
         <v>0.7343283582089553</v>
       </c>
       <c r="G52">
-        <v>0.8717164179104467</v>
+        <v>0.8746268656716418</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2208,10 +2208,10 @@
         <v>0.8059701492537313</v>
       </c>
       <c r="F53">
-        <v>0.7343283582089553</v>
+        <v>0.7373134328358208</v>
       </c>
       <c r="G53">
-        <v>0.8716417910447761</v>
+        <v>0.8746268656716418</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2278,10 +2278,10 @@
         <v>0.8240000000000001</v>
       </c>
       <c r="F55">
-        <v>0.7573333333333333</v>
+        <v>0.76</v>
       </c>
       <c r="G55">
-        <v>0.8853333333333333</v>
+        <v>0.888</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2313,10 +2313,10 @@
         <v>0.8240000000000001</v>
       </c>
       <c r="F56">
-        <v>0.7626666666666666</v>
+        <v>0.7573333333333333</v>
       </c>
       <c r="G56">
-        <v>0.888</v>
+        <v>0.8853333333333333</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2348,10 +2348,10 @@
         <v>0.8133333333333334</v>
       </c>
       <c r="F57">
-        <v>0.7466666666666666</v>
+        <v>0.7493333333333334</v>
       </c>
       <c r="G57">
-        <v>0.8747333333333324</v>
+        <v>0.8773333333333333</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>0.9206349206349207</v>
       </c>
       <c r="F62">
-        <v>0.8634920634920635</v>
+        <v>0.8603174603174604</v>
       </c>
       <c r="G62">
         <v>0.9714285714285714</v>
@@ -2593,7 +2593,7 @@
         <v>0.9079365079365079</v>
       </c>
       <c r="F64">
-        <v>0.8412698412698413</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="G64">
         <v>0.9650793650793651</v>
@@ -2628,7 +2628,7 @@
         <v>0.9079365079365079</v>
       </c>
       <c r="F65">
-        <v>0.8476190476190476</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="G65">
         <v>0.9650793650793651</v>
@@ -2798,10 +2798,10 @@
         <v>0.8215982721382289</v>
       </c>
       <c r="F70">
-        <v>0.7939416846652267</v>
+        <v>0.7943844492440605</v>
       </c>
       <c r="G70">
-        <v>0.8488120950323974</v>
+        <v>0.8479481641468682</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>0.7987041036717063</v>
       </c>
       <c r="F71">
-        <v>0.7684665226781857</v>
+        <v>0.7697624190064795</v>
       </c>
       <c r="G71">
         <v>0.827645788336933</v>
@@ -2858,10 +2858,10 @@
         <v>0.7961123110151188</v>
       </c>
       <c r="F72">
-        <v>0.7667278617710582</v>
+        <v>0.767170626349892</v>
       </c>
       <c r="G72">
-        <v>0.8250539956803455</v>
+        <v>0.8241900647948164</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>0.7654427645788338</v>
       </c>
       <c r="G73">
-        <v>0.8237580993520518</v>
+        <v>0.8220302375809936</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>

--- a/data/RLIe_all.xlsx
+++ b/data/RLIe_all.xlsx
@@ -461,7 +461,7 @@
         <v>0.34</v>
       </c>
       <c r="G3">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         <v>0.6481203007518797</v>
       </c>
       <c r="F14">
-        <v>0.5894736842105264</v>
+        <v>0.58796992481203</v>
       </c>
       <c r="G14">
-        <v>0.7067669172932332</v>
+        <v>0.7082706766917293</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -878,10 +878,10 @@
         <v>0.6330827067669174</v>
       </c>
       <c r="F15">
-        <v>0.5729323308270677</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G15">
-        <v>0.6977443609022556</v>
+        <v>0.6932706766917288</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>0.6330827067669174</v>
       </c>
       <c r="F16">
-        <v>0.5699248120300752</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G16">
         <v>0.6962406015037594</v>
@@ -948,7 +948,7 @@
         <v>0.6330827067669174</v>
       </c>
       <c r="F17">
-        <v>0.5684210526315789</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G17">
         <v>0.6947368421052631</v>
@@ -983,10 +983,10 @@
         <v>0.87</v>
       </c>
       <c r="F18">
-        <v>0.8333333333333334</v>
+        <v>0.8322222222222222</v>
       </c>
       <c r="G18">
-        <v>0.9044444444444444</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>0.8055555555555556</v>
       </c>
       <c r="G19">
-        <v>0.8844444444444445</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>0.8388888888888889</v>
       </c>
       <c r="F20">
-        <v>0.7999722222222223</v>
+        <v>0.7988888888888889</v>
       </c>
       <c r="G20">
-        <v>0.8766666666666667</v>
+        <v>0.8788888888888888</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>0.7933333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8733333333333333</v>
+        <v>0.8744444444444445</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>0.9369565217391305</v>
       </c>
       <c r="F22">
-        <v>0.8934239130434783</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="G22">
         <v>0.9760869565217392</v>
@@ -1161,7 +1161,7 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="G23">
-        <v>0.9630434782608696</v>
+        <v>0.9608695652173913</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>0.9195652173913044</v>
       </c>
       <c r="F24">
-        <v>0.8673913043478261</v>
+        <v>0.8717391304347826</v>
       </c>
       <c r="G24">
         <v>0.9630434782608696</v>
@@ -1228,7 +1228,7 @@
         <v>0.9195652173913044</v>
       </c>
       <c r="F25">
-        <v>0.8695652173913043</v>
+        <v>0.8695108695652174</v>
       </c>
       <c r="G25">
         <v>0.9630434782608696</v>
@@ -1861,7 +1861,7 @@
         <v>0.5681818181818181</v>
       </c>
       <c r="G43">
-        <v>0.6909090909090909</v>
+        <v>0.6924242424242424</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1928,10 +1928,10 @@
         <v>0.6303030303030304</v>
       </c>
       <c r="F45">
-        <v>0.5696969696969697</v>
+        <v>0.5681818181818181</v>
       </c>
       <c r="G45">
-        <v>0.6909090909090909</v>
+        <v>0.6924242424242424</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>0.9421052631578948</v>
       </c>
       <c r="F46">
-        <v>0.8842105263157894</v>
+        <v>0.8789473684210526</v>
       </c>
       <c r="G46">
         <v>0.9894736842105263</v>
@@ -2068,7 +2068,7 @@
         <v>0.9263157894736842</v>
       </c>
       <c r="F49">
-        <v>0.8631578947368421</v>
+        <v>0.8578947368421053</v>
       </c>
       <c r="G49">
         <v>0.9842105263157894</v>
@@ -2103,7 +2103,7 @@
         <v>0.8507462686567164</v>
       </c>
       <c r="F50">
-        <v>0.7850746268656716</v>
+        <v>0.7820895522388059</v>
       </c>
       <c r="G50">
         <v>0.9134328358208955</v>
@@ -2138,7 +2138,7 @@
         <v>0.8149253731343283</v>
       </c>
       <c r="F51">
-        <v>0.7462686567164178</v>
+        <v>0.7432835820895523</v>
       </c>
       <c r="G51">
         <v>0.8805970149253731</v>
@@ -2173,7 +2173,7 @@
         <v>0.8059701492537313</v>
       </c>
       <c r="F52">
-        <v>0.7343283582089553</v>
+        <v>0.7373134328358208</v>
       </c>
       <c r="G52">
         <v>0.8746268656716418</v>
@@ -2208,7 +2208,7 @@
         <v>0.8059701492537313</v>
       </c>
       <c r="F53">
-        <v>0.7373134328358208</v>
+        <v>0.7343283582089553</v>
       </c>
       <c r="G53">
         <v>0.8746268656716418</v>
@@ -2281,7 +2281,7 @@
         <v>0.76</v>
       </c>
       <c r="G55">
-        <v>0.888</v>
+        <v>0.88</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>0.8240000000000001</v>
       </c>
       <c r="F56">
-        <v>0.7573333333333333</v>
+        <v>0.76</v>
       </c>
       <c r="G56">
         <v>0.8853333333333333</v>
@@ -2348,7 +2348,7 @@
         <v>0.8133333333333334</v>
       </c>
       <c r="F57">
-        <v>0.7493333333333334</v>
+        <v>0.744</v>
       </c>
       <c r="G57">
         <v>0.8773333333333333</v>
@@ -2628,7 +2628,7 @@
         <v>0.9079365079365079</v>
       </c>
       <c r="F65">
-        <v>0.8412698412698413</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="G65">
         <v>0.9650793650793651</v>
@@ -2801,7 +2801,7 @@
         <v>0.7943844492440605</v>
       </c>
       <c r="G70">
-        <v>0.8479481641468682</v>
+        <v>0.8488120950323974</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>0.7987041036717063</v>
       </c>
       <c r="F71">
-        <v>0.7697624190064795</v>
+        <v>0.7688984881209503</v>
       </c>
       <c r="G71">
         <v>0.827645788336933</v>
@@ -2858,10 +2858,10 @@
         <v>0.7961123110151188</v>
       </c>
       <c r="F72">
-        <v>0.767170626349892</v>
+        <v>0.7658747300215982</v>
       </c>
       <c r="G72">
-        <v>0.8241900647948164</v>
+        <v>0.8254859611231101</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2888,10 +2888,10 @@
         <v>0.7943844492440605</v>
       </c>
       <c r="F73">
-        <v>0.7654427645788338</v>
+        <v>0.7658747300215982</v>
       </c>
       <c r="G73">
-        <v>0.8220302375809936</v>
+        <v>0.8237580993520518</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>

--- a/data/RLIe_all.xlsx
+++ b/data/RLIe_all.xlsx
@@ -496,7 +496,7 @@
         <v>0.34</v>
       </c>
       <c r="G4">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="F6">
-        <v>0.8363636363636364</v>
+        <v>0.8272727272727273</v>
       </c>
       <c r="G6">
         <v>0.9727272727272728</v>
@@ -846,7 +846,7 @@
         <v>0.58796992481203</v>
       </c>
       <c r="G14">
-        <v>0.7082706766917293</v>
+        <v>0.7097744360902256</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G15">
-        <v>0.6932706766917288</v>
+        <v>0.6947368421052631</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G16">
-        <v>0.6962406015037594</v>
+        <v>0.6947368421052631</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -948,10 +948,10 @@
         <v>0.6330827067669174</v>
       </c>
       <c r="F17">
-        <v>0.5714285714285714</v>
+        <v>0.5669172932330827</v>
       </c>
       <c r="G17">
-        <v>0.6947368421052631</v>
+        <v>0.6962406015037594</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
         <v>0.8322222222222222</v>
       </c>
       <c r="G18">
-        <v>0.9066666666666666</v>
+        <v>0.9055555555555556</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>0.8455555555555556</v>
       </c>
       <c r="F19">
-        <v>0.8055555555555556</v>
+        <v>0.8044444444444444</v>
       </c>
       <c r="G19">
         <v>0.8833333333333333</v>
@@ -1091,7 +1091,7 @@
         <v>0.7933333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8744444444444445</v>
+        <v>0.8722499999999996</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>0.9369565217391305</v>
       </c>
       <c r="F22">
-        <v>0.8913043478260869</v>
+        <v>0.8934782608695653</v>
       </c>
       <c r="G22">
         <v>0.9760869565217392</v>
@@ -1161,7 +1161,7 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="G23">
-        <v>0.9608695652173913</v>
+        <v>0.9630434782608696</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
         <v>0.9195652173913044</v>
       </c>
       <c r="F24">
-        <v>0.8717391304347826</v>
+        <v>0.8716847826086956</v>
       </c>
       <c r="G24">
-        <v>0.9630434782608696</v>
+        <v>0.9652173913043478</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>0.9195652173913044</v>
       </c>
       <c r="F25">
-        <v>0.8695108695652174</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="G25">
         <v>0.9630434782608696</v>
@@ -1823,10 +1823,10 @@
         <v>0.6454545454545455</v>
       </c>
       <c r="F42">
-        <v>0.5833333333333333</v>
+        <v>0.5848484848484848</v>
       </c>
       <c r="G42">
-        <v>0.7060606060606061</v>
+        <v>0.7075757575757575</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1858,10 +1858,10 @@
         <v>0.6303030303030304</v>
       </c>
       <c r="F43">
-        <v>0.5681818181818181</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="G43">
-        <v>0.6924242424242424</v>
+        <v>0.693939393939394</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1893,10 +1893,10 @@
         <v>0.6303030303030304</v>
       </c>
       <c r="F44">
-        <v>0.5681818181818181</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="G44">
-        <v>0.6909090909090909</v>
+        <v>0.6893939393939394</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>0.5681818181818181</v>
       </c>
       <c r="G45">
-        <v>0.6924242424242424</v>
+        <v>0.693939393939394</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         <v>0.8507462686567164</v>
       </c>
       <c r="F50">
-        <v>0.7820895522388059</v>
+        <v>0.7850746268656716</v>
       </c>
       <c r="G50">
         <v>0.9134328358208955</v>
@@ -2138,7 +2138,7 @@
         <v>0.8149253731343283</v>
       </c>
       <c r="F51">
-        <v>0.7432835820895523</v>
+        <v>0.7462686567164178</v>
       </c>
       <c r="G51">
         <v>0.8805970149253731</v>
@@ -2173,7 +2173,7 @@
         <v>0.8059701492537313</v>
       </c>
       <c r="F52">
-        <v>0.7373134328358208</v>
+        <v>0.7343283582089553</v>
       </c>
       <c r="G52">
         <v>0.8746268656716418</v>
@@ -2211,7 +2211,7 @@
         <v>0.7343283582089553</v>
       </c>
       <c r="G53">
-        <v>0.8746268656716418</v>
+        <v>0.8716417910447761</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         <v>0.792</v>
       </c>
       <c r="G54">
-        <v>0.904</v>
+        <v>0.9066666666666666</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>0.76</v>
       </c>
       <c r="G55">
-        <v>0.88</v>
+        <v>0.8853333333333333</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>0.76</v>
       </c>
       <c r="G56">
-        <v>0.8853333333333333</v>
+        <v>0.8826666666666667</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2348,10 +2348,10 @@
         <v>0.8133333333333334</v>
       </c>
       <c r="F57">
-        <v>0.744</v>
+        <v>0.7466666666666666</v>
       </c>
       <c r="G57">
-        <v>0.8773333333333333</v>
+        <v>0.8746666666666667</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>0.9206349206349207</v>
       </c>
       <c r="F62">
-        <v>0.8603174603174604</v>
+        <v>0.8634920634920635</v>
       </c>
       <c r="G62">
         <v>0.9714285714285714</v>
@@ -2798,10 +2798,10 @@
         <v>0.8215982721382289</v>
       </c>
       <c r="F70">
-        <v>0.7943844492440605</v>
+        <v>0.7948164146868251</v>
       </c>
       <c r="G70">
-        <v>0.8488120950323974</v>
+        <v>0.8479481641468682</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>0.7987041036717063</v>
       </c>
       <c r="F71">
-        <v>0.7688984881209503</v>
+        <v>0.7697624190064795</v>
       </c>
       <c r="G71">
         <v>0.827645788336933</v>
@@ -2858,10 +2858,10 @@
         <v>0.7961123110151188</v>
       </c>
       <c r="F72">
-        <v>0.7658747300215982</v>
+        <v>0.7680345572354211</v>
       </c>
       <c r="G72">
-        <v>0.8254859611231101</v>
+        <v>0.824622030237581</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2891,7 +2891,7 @@
         <v>0.7658747300215982</v>
       </c>
       <c r="G73">
-        <v>0.8237580993520518</v>
+        <v>0.8215982721382289</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
